--- a/Excel_Stock/Excel Risk-Adjusted Returns Ratios Measurement/Information_Ratio.xlsx
+++ b/Excel_Stock/Excel Risk-Adjusted Returns Ratios Measurement/Information_Ratio.xlsx
@@ -44,9 +44,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>S&amp;P 5000</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Market Monthly Returns</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1055,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>44927</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3450,7 @@
   <dimension ref="A1:F471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>4181.17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4">
         <f>AVERAGE(D3:D23)</f>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="13">
         <f>AVERAGE(E3:E23)</f>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="17">
         <f>_xlfn.STDEV.P(F3:F23)</f>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="16">
         <f>(B25-B26)/B27</f>
